--- a/doors-detector/results/house9_experimentk_ordered_CriterionType.MIN_CriterionSorting.GROWING.xlsx
+++ b/doors-detector/results/house9_experimentk_ordered_CriterionType.MIN_CriterionSorting.GROWING.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7678417498843489</v>
+        <v>0.7556582617583766</v>
       </c>
       <c r="F2" t="n">
         <v>910</v>
       </c>
       <c r="G2" t="n">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="H2" t="n">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.4949853476988534</v>
+        <v>0.4554243226558012</v>
       </c>
       <c r="F3" t="n">
         <v>163</v>
       </c>
       <c r="G3" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H3" t="n">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.4274371206145406</v>
+        <v>0.4538504331814342</v>
       </c>
       <c r="F4" t="n">
         <v>208</v>
       </c>
       <c r="G4" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H4" t="n">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.690427025385849</v>
+        <v>0.7166001750790202</v>
       </c>
       <c r="F5" t="n">
         <v>910</v>
       </c>
       <c r="G5" t="n">
-        <v>701</v>
+        <v>721</v>
       </c>
       <c r="H5" t="n">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.7443960256435763</v>
+        <v>0.7183748102666978</v>
       </c>
       <c r="F6" t="n">
         <v>163</v>
       </c>
       <c r="G6" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H6" t="n">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.5617406459345065</v>
+        <v>0.5863872842858566</v>
       </c>
       <c r="F7" t="n">
         <v>208</v>
       </c>
       <c r="G7" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H7" t="n">
-        <v>309</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.6934927806667683</v>
+        <v>0.7688953529134508</v>
       </c>
       <c r="F8" t="n">
         <v>910</v>
       </c>
       <c r="G8" t="n">
-        <v>706</v>
+        <v>754</v>
       </c>
       <c r="H8" t="n">
-        <v>204</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.7697565301561636</v>
+        <v>0.7692122619961211</v>
       </c>
       <c r="F9" t="n">
         <v>163</v>
       </c>
       <c r="G9" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H9" t="n">
-        <v>184</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.5977523251968752</v>
+        <v>0.5952351273305172</v>
       </c>
       <c r="F10" t="n">
         <v>208</v>
       </c>
       <c r="G10" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H10" t="n">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7058380811330903</v>
+        <v>0.7772481757588467</v>
       </c>
       <c r="F11" t="n">
         <v>910</v>
       </c>
       <c r="G11" t="n">
-        <v>713</v>
+        <v>759</v>
       </c>
       <c r="H11" t="n">
-        <v>197</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.7794604106494623</v>
+        <v>0.825280312943795</v>
       </c>
       <c r="F12" t="n">
         <v>163</v>
       </c>
       <c r="G12" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H12" t="n">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.6414161582907035</v>
+        <v>0.6537174117576511</v>
       </c>
       <c r="F13" t="n">
         <v>208</v>
       </c>
       <c r="G13" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H13" t="n">
-        <v>301</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.7114322845191862</v>
+        <v>0.814014401781214</v>
       </c>
       <c r="F14" t="n">
         <v>910</v>
       </c>
       <c r="G14" t="n">
-        <v>716</v>
+        <v>787</v>
       </c>
       <c r="H14" t="n">
-        <v>194</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.7889529070249747</v>
+        <v>0.8244762592015252</v>
       </c>
       <c r="F15" t="n">
         <v>163</v>
       </c>
       <c r="G15" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H15" t="n">
-        <v>126</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.6340638464334826</v>
+        <v>0.6669720222106628</v>
       </c>
       <c r="F16" t="n">
         <v>208</v>
       </c>
       <c r="G16" t="n">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H16" t="n">
-        <v>284</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7659630228641322</v>
+        <v>0.7917298983711534</v>
       </c>
       <c r="F17" t="n">
         <v>910</v>
       </c>
       <c r="G17" t="n">
-        <v>746</v>
+        <v>774</v>
       </c>
       <c r="H17" t="n">
-        <v>164</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.7711491183343375</v>
+        <v>0.8482118577249197</v>
       </c>
       <c r="F18" t="n">
         <v>163</v>
       </c>
       <c r="G18" t="n">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="H18" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.6666972210604212</v>
+        <v>0.672921993193645</v>
       </c>
       <c r="F19" t="n">
         <v>208</v>
       </c>
       <c r="G19" t="n">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H19" t="n">
-        <v>300</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
